--- a/data/trans_dic/P7C_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P7C_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas &lt; 6 años</t>
+          <t>Hogares con personas &lt; 6 años (tasa de respuesta: 99,72%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,12 +681,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -676,42 +701,57 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,96%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>2,15%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>2,37%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>2,19%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>3,87%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,24; 10,91</t>
+          <t>0,0; 19,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,31; 10,71</t>
+          <t>0,0; 13,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,17; 11,03</t>
+          <t>0,0; 12,35</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,16; 10,33</t>
+          <t>0,0; 14,17</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,23; 7,69</t>
+          <t>0,0; 15,44</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,12; 7,15</t>
+          <t>0,0; 12,94</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,55; 5,69</t>
+          <t>0,0; 8,79</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,53; 4,82</t>
+          <t>0,0; 7,92</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 8,61</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 8,04</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>1,01; 11,91</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>29,78%</t>
+          <t>34,05%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>29,65%</t>
+          <t>33,71%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>28,31%</t>
+          <t>31,52%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>29,26%</t>
+          <t>31,69%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>53,4%</t>
+          <t>61,16%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>54,94%</t>
+          <t>46,11%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>53,95%</t>
+          <t>46,26%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>52,87%</t>
+          <t>45,76%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>41,91%</t>
+          <t>44,48%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>42,91%</t>
+          <t>52,45%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>41,03%</t>
+          <t>40,0%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>40,52%</t>
+          <t>39,92%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>38,2%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>37,45%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>57,66%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,63; 51,18</t>
+          <t>18,83; 61,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,89; 51,94</t>
+          <t>17,52; 63,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,34; 44,8</t>
+          <t>16,48; 57,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,59; 48,59</t>
+          <t>15,58; 59,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>42,58; 64,67</t>
+          <t>37,76; 83,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>44,27; 66,63</t>
+          <t>32,7; 58,79</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>43,12; 65,45</t>
+          <t>33,44; 59,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>42,28; 64,02</t>
+          <t>32,97; 58,99</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>33,39; 51,99</t>
+          <t>32,43; 58,83</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>34,1; 53,53</t>
+          <t>36,83; 65,91</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>32,88; 51,08</t>
+          <t>28,08; 55,31</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>31,87; 51,48</t>
+          <t>27,43; 55,99</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>26,31; 53,24</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>24,65; 53,78</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>43,48; 73,7</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>40,86%</t>
+          <t>43,7%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>43,64%</t>
+          <t>43,99%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>40,49%</t>
+          <t>44,13%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>41,57%</t>
+          <t>43,78%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>38,8%</t>
+          <t>47,16%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>38,36%</t>
+          <t>41,54%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>37,76%</t>
+          <t>42,57%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>37,79%</t>
+          <t>42,14%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>39,75%</t>
+          <t>42,09%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>40,87%</t>
+          <t>52,37%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>39,04%</t>
+          <t>42,39%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>39,63%</t>
+          <t>43,11%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>42,91%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>42,78%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>50,14%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>30,97; 51,3</t>
+          <t>31,0; 55,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>31,96; 58,69</t>
+          <t>31,21; 56,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>29,32; 52,56</t>
+          <t>30,96; 56,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>29,96; 55,94</t>
+          <t>31,95; 56,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>31,63; 47,55</t>
+          <t>33,23; 59,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>31,09; 47,09</t>
+          <t>31,34; 51,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>30,47; 46,55</t>
+          <t>32,22; 52,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>30,4; 46,32</t>
+          <t>32,04; 51,7</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>33,03; 45,71</t>
+          <t>31,65; 51,68</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>34,15; 48,87</t>
+          <t>42,13; 62,57</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>32,86; 46,19</t>
+          <t>35,33; 50,22</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>32,95; 47,43</t>
+          <t>36,24; 51,34</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>35,87; 50,26</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>35,6; 51,18</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>41,93; 58,01</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>10,32%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,64%</t>
+          <t>8,98%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,99%</t>
+          <t>9,08%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>8,94%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,99%</t>
+          <t>19,23%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>4,76%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>10,96%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>6,82%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>7,34%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>7,31%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>14,95%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,69; 12,75</t>
+          <t>4,91; 17,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,51; 12,18</t>
+          <t>3,82; 17,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,88; 11,84</t>
+          <t>3,85; 18,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,89; 11,72</t>
+          <t>3,81; 17,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,71; 7,72</t>
+          <t>11,36; 28,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,8; 7,82</t>
+          <t>1,86; 10,55</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,81; 8,53</t>
+          <t>1,93; 10,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,8; 8,59</t>
+          <t>2,04; 12,64</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,08; 8,17</t>
+          <t>2,13; 12,75</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,15; 8,23</t>
+          <t>6,58; 18,0</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,13; 8,37</t>
+          <t>3,92; 11,91</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,08; 8,28</t>
+          <t>3,44; 11,38</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>4,29; 11,84</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>4,25; 11,79</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>10,21; 21,31</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1361,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>10,31%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>7,54%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>4,77%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>8,43%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>5,17%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>3,97%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>3,36%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>2,81%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>6,15%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1444,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,84</t>
+          <t>0,0; 6,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,77</t>
+          <t>0,0; 6,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,17</t>
+          <t>0,0; 6,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,99</t>
+          <t>0,0; 6,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,78; 10,94</t>
+          <t>1,26; 11,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,9; 9,24</t>
+          <t>4,07; 20,95</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,72; 9,69</t>
+          <t>1,96; 17,18</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,81; 10,67</t>
+          <t>1,91; 16,23</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,37; 6,42</t>
+          <t>0,0; 14,78</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,95; 5,39</t>
+          <t>2,2; 20,88</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,42; 4,84</t>
+          <t>2,42; 11,22</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,7; 5,61</t>
+          <t>1,53; 9,19</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0,92; 8,68</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0,77; 7,74</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>2,88; 11,95</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1546,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1401,17 +1576,32 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
+          <t>12,8%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="M14" s="2" t="inlineStr">
+      <c r="N14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>0,61%</t>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>1,4%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>7,65%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1614,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,34</t>
+          <t>0,0; 13,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,14</t>
+          <t>0,0; 47,58</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,82</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 7,73</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 31,98</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1701,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>14,79%</t>
+          <t>16,73%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>16,05%</t>
+          <t>16,52%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>14,13%</t>
+          <t>15,76%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>14,61%</t>
+          <t>16,19%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>26,52%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>20,23%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>20,64%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>20,14%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>19,59%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>25,11%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>18,6%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>18,73%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>18,05%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
           <t>17,92%</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>18,85%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>17,97%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>17,49%</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>16,45%</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>17,53%</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>16,13%</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>16,07%</t>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>25,8%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1784,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,65; 19,41</t>
+          <t>12,47; 24,54</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>12,42; 22,4</t>
+          <t>11,89; 25,39</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,09; 18,65</t>
+          <t>11,31; 23,52</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>11,3; 20,29</t>
+          <t>11,53; 23,61</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>14,86; 20,84</t>
+          <t>18,36; 40,28</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>15,59; 22,02</t>
+          <t>16,31; 24,37</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>15,18; 21,1</t>
+          <t>16,4; 24,84</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>14,48; 20,66</t>
+          <t>16,64; 24,45</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>14,17; 19,12</t>
+          <t>16,13; 23,95</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>14,99; 20,79</t>
+          <t>20,57; 32,44</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>13,91; 18,79</t>
+          <t>15,58; 22,3</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>13,56; 19,08</t>
+          <t>15,82; 23,24</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>15,2; 21,53</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>15,11; 21,81</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>21,25; 33,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1628,15 +1870,1980 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con personas &lt; 6 años (tasa de respuesta: 99,72%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>5097</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>4880</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>5188</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>5235</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>5370</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>6036</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>4880</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>5188</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>5235</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>5370</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>11133</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 27810</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 15420</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 16548</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 16265</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 18149</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 18822</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17906</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 19089</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>0; 18982</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>0; 19703</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>2913; 34246</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>46592</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>56877</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>45203</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>48884</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>139253</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>61471</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>76380</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>57979</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>56189</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>80336</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>108063</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>133257</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>103182</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>105073</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>219589</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>25767; 84550</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>29564; 106820</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>23635; 82484</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>24037; 92194</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>85985; 190518</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>43597; 78373</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>55207; 98980</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>41775; 74747</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>40969; 74313</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>56407; 100953</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>75865; 149409</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>91582; 186916</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>71073; 143806</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>69151; 150911</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>165578; 280702</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>61063</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>71283</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>58353</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>60264</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>85014</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>89482</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>112412</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>88232</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>84371</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>125533</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>150545</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>183694</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>146585</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>144636</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>210548</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>43321; 78194</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>50585; 91298</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>40943; 74586</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>43969; 78422</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>59907; 106813</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>67500; 110561</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>85080; 138076</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>67084; 108242</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>63443; 103610</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>100996; 149993</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>125463; 178357</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>154412; 218762</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>122524; 171673</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>120357; 173044</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>176086; 243605</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>16868</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>16554</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>14478</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>13793</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>37751</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>9111</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>10919</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>10742</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>9954</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>23129</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>25978</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>27473</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>25219</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>23748</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>60880</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>8033; 29339</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>7049; 32636</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>6132; 29122</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>5886; 27417</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>22301; 56772</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>3566; 20183</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>4219; 23774</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>3759; 23274</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>3638; 21761</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>13884; 37975</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>13894; 42254</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>13869; 45821</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>14733; 40660</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>13830; 38314</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>41583; 86786</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1866</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2112</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1809</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1655</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>6221</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>10669</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>8756</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>5772</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>4416</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>11387</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>12534</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>10868</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>7580</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>6071</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>17608</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 9317</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 10053</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 8740</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 8035</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1908; 16655</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>4212; 21676</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>2278; 19962</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1790; 15226</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 13699</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>2966; 28206</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>5866; 27188</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>4196; 25156</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>2075; 19617</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>1651; 16711</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>8253; 34209</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>2817</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>25284</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>2817</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>25284</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 12544</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0; 94012</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>0; 15520</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>0; 105734</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>126389</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>146825</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>119842</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>127413</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>273336</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>175613</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>213654</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>167959</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>160302</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>271707</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>302001</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>360480</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>287801</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>287715</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>545043</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>94155; 185325</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>105728; 225703</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>85980; 178814</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>90783; 185842</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>189258; 415111</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>141589; 211505</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>169753; 257146</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>138772; 203925</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>131976; 196028</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>222532; 350996</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>252970; 362044</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>304333; 447298</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>242286; 343166</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>242536; 350075</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>448959; 699546</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>